--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
     <sheet name="degradation_rates" sheetId="1" r:id="rId2"/>
-    <sheet name="wt" sheetId="17" r:id="rId3"/>
-    <sheet name="dcin5" sheetId="18" r:id="rId4"/>
+    <sheet name="wt_log2_expression" sheetId="17" r:id="rId3"/>
+    <sheet name="dcin5_log2_expression" sheetId="18" r:id="rId4"/>
     <sheet name="network" sheetId="5" r:id="rId5"/>
     <sheet name="network_weights" sheetId="11" r:id="rId6"/>
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1784,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="network_weights" sheetId="11" r:id="rId6"/>
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
-    <sheet name="ntoes" sheetId="19" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>CIN5</t>
   </si>
@@ -115,9 +114,6 @@
   </si>
   <si>
     <t>dcin5</t>
-  </si>
-  <si>
-    <t>this is a test case in which the forward problem was solved to generate data.</t>
   </si>
   <si>
     <t>simtime</t>
@@ -969,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1233,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1274,7 +1270,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K1" s="10">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="L1" s="10">
         <v>1.6</v>
@@ -1784,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1871,7 +1867,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -1879,7 +1875,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -1915,7 +1911,7 @@
         <v>1.2</v>
       </c>
       <c r="E13">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1953,7 +1949,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2084,24 +2080,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -1781,7 +1781,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1838,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1854,7 +1854,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>CIN5</t>
   </si>
@@ -38,33 +38,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -77,21 +56,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -116,13 +86,31 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
   </si>
 </sst>
 </file>
@@ -176,14 +164,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +187,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,189 +594,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -799,159 +755,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -963,20 +886,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -985,7 +908,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -994,16 +917,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -1011,17 +934,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1030,7 +950,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1039,7 +959,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1048,7 +968,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1056,16 +976,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1074,7 +991,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -1083,7 +1000,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -1092,7 +1009,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -1100,16 +1017,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -1118,7 +1032,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -1127,7 +1041,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -1136,7 +1050,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -1144,16 +1058,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -1162,7 +1073,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -1171,7 +1082,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -1180,7 +1091,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -1188,37 +1099,34 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1230,282 +1138,267 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1518,9 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1545,14 +1436,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1563,7 +1454,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1580,7 +1471,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1641,9 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1667,14 +1556,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1702,7 +1591,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1719,7 +1608,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1780,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1791,22 +1680,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1827,7 +1716,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -1835,7 +1724,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1843,7 +1732,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -1851,7 +1740,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1859,49 +1748,49 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -1916,20 +1805,20 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -1938,9 +1827,9 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -1949,7 +1838,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2027,20 +1916,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2048,7 +1940,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" activeTab="1"/>
+    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A8" sqref="A8:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1916,9 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>CIN5</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>Sigmoid</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -608,10 +611,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -770,10 +773,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -896,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1148,7 +1151,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -1437,7 +1440,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1557,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1669,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1748,15 +1751,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1764,7 +1767,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -1788,7 +1791,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -1811,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1838,7 +1841,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1916,16 +1919,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>threshold_b</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -611,10 +611,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -773,10 +773,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1151,7 +1151,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -1440,7 +1440,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1560,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1672,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1751,15 +1751,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1919,16 +1919,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>CIN5</t>
   </si>
@@ -107,13 +107,16 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -128,6 +131,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -137,6 +141,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1440,7 +1445,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1560,7 +1565,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1670,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1750,16 +1755,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="A9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1767,143 +1772,151 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>
@@ -1919,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>CIN5</t>
   </si>
@@ -63,9 +68,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -275,6 +277,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -616,10 +621,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -778,10 +783,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -904,7 +909,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1156,7 +1161,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -1445,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1565,7 +1570,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1675,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1686,27 +1691,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +1707,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1723,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1731,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1746,7 +1739,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1754,57 +1747,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -1819,20 +1812,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -1843,80 +1836,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>22</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -1940,10 +1922,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="25340" windowHeight="15540" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="14565" yWindow="360" windowWidth="10200" windowHeight="9885" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -19,17 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>CIN5</t>
   </si>
@@ -70,6 +65,9 @@
     <t>Strain</t>
   </si>
   <si>
+    <t>Deletion</t>
+  </si>
+  <si>
     <t>wt</t>
   </si>
   <si>
@@ -79,6 +77,9 @@
     <t>fix_b</t>
   </si>
   <si>
+    <t>Sheet</t>
+  </si>
+  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -109,23 +110,28 @@
     <t>MM</t>
   </si>
   <si>
+    <t>targets/regulators</t>
+  </si>
+  <si>
     <t>production_function</t>
   </si>
   <si>
     <t>L_curve</t>
-  </si>
-  <si>
-    <t>cols regulators/rows targets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,17 +149,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,17 +170,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,9 +275,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -594,227 +602,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="D24" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -823,258 +897,250 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="10.5703125" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10">
         <v>0.4</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="11">
         <v>0.4</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="12">
         <v>0.4</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="13">
         <v>0.8</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="14">
         <v>0.8</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="15">
         <v>0.8</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="18">
         <v>1.2</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="19">
         <v>1.6</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="20">
         <v>1.6</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="12">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="15">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="18">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="20">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="12">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="15">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="18">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="20">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="12">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="15">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="18">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="20">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="12">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="15">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="18">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="20">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="F6" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="I10" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="H14" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="E20" s="3"/>
-      <c r="L20" s="3"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1083,277 +1149,269 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="K7" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="E11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="E13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="18" spans="6:13">
-      <c r="F18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="6:13">
-      <c r="H19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="6:13">
-      <c r="H20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="22" spans="6:13">
-      <c r="K22" s="3"/>
-      <c r="M22" s="3"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1363,110 +1421,110 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1475,11 +1533,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1489,354 +1542,381 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I18">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="D14" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="K18">
+        <v>0.9</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O18">
+        <v>1.3</v>
+      </c>
+      <c r="P18">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>1.5</v>
+      </c>
+      <c r="R18">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>
@@ -1845,11 +1925,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1858,67 +1933,59 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_forward_graph.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="25340" windowHeight="15540" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="263" yWindow="0" windowWidth="25343" windowHeight="15540" tabRatio="644" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -19,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -189,7 +194,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -593,20 +598,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -614,7 +619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -622,7 +627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -630,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +644,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,54 +653,54 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="2"/>
     </row>
   </sheetData>
@@ -712,21 +717,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -734,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -742,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -750,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -766,43 +771,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -819,19 +824,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="1"/>
+    <col min="1" max="16384" width="10.5859375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -854,10 +859,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -873,195 +878,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -1079,19 +1084,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1114,10 +1119,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1133,89 +1138,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,92 +1261,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -1358,34 +1363,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.41015625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1484,34 +1489,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1171875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -1545,7 +1550,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1627,20 +1632,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21.1171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1701,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1728,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="1">
         <v>0.4</v>
@@ -1795,10 +1800,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="1">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="1">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="1">
         <v>0.8</v>
@@ -1813,13 +1818,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="1">
         <v>1.3</v>
       </c>
       <c r="P16" s="1">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="1">
         <v>1.5</v>
@@ -1828,13 +1833,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="1">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="1">
         <v>1.8</v>
       </c>
       <c r="U16" s="1">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="1">
         <v>2</v>
@@ -1854,19 +1859,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,7 +1879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1906,10 +1911,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
